--- a/medicine/Sexualité et sexologie/Cécile_de_Volanges/Cécile_de_Volanges.xlsx
+++ b/medicine/Sexualité et sexologie/Cécile_de_Volanges/Cécile_de_Volanges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_de_Volanges</t>
+          <t>Cécile_de_Volanges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cécile de Volanges (ou Cécile Volanges quand l'intéressée parle d'elle-même) est un personnage du roman Les Liaisons dangereuses de Choderlos de Laclos.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_de_Volanges</t>
+          <t>Cécile_de_Volanges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du personnage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille de Madame de Volanges, Cécile a grandi au couvent dans l'innocence et l'ignorance. Sa mère compte la marier au comte de Gercourt. Elle écrit à une amie de couvent, Sophie Carnay.
 Madame de Merteuil, désireuse de se venger de Gercourt et amie de Madame de Volanges, imagine un stratagème pour atteindre le comte : déshonorer sa fiancée en secret, pour lui livrer une jeune femme qui n'est plus vierge.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_de_Volanges</t>
+          <t>Cécile_de_Volanges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Incarnations à l'écran</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en 1959, dans Les Liaisons dangereuses 1960 de Roger Vadim, par Jeanne Valérie ;
 en 1980, dans Les Liaisons dangereuses de Claude Barma, par Pascale Bardet ;
